--- a/112.xlsx
+++ b/112.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Documents/GitHub/SV2_STVOL/DM_28.05/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Documents/GitHub/SV2_STVOL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1FF59EC-5443-5743-B99E-22F326767174}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F9727DB-1653-0A4B-95BA-C7AE611B75D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="500" windowWidth="28240" windowHeight="16000" xr2:uid="{C823BBD4-57A0-A041-A1A6-D7AD226F306A}"/>
   </bookViews>
@@ -382,10 +382,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33A8FD07-ED2C-CF41-BCB5-C9C8315A3B92}">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36:A70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -415,6 +415,331 @@
         <v>121212</v>
       </c>
     </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>18746</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>145267286</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>1345863</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>34482245</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>121212</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>18746</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>145267286</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>1345863</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>34482245</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>121212</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>18746</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>145267286</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>1345863</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>34482245</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>121212</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>18746</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>145267286</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>1345863</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>34482245</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>121212</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>18746</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>145267286</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>1345863</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>34482245</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>121212</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>18746</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>145267286</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>1345863</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>34482245</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>121212</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>18746</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>145267286</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>1345863</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>34482245</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>121212</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>18746</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>145267286</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>1345863</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>34482245</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>121212</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>18746</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>145267286</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>1345863</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>34482245</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>121212</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>18746</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>145267286</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>1345863</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>34482245</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>121212</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>18746</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>145267286</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>1345863</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>34482245</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>121212</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>18746</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>145267286</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>1345863</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>34482245</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>121212</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>18746</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>145267286</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>1345863</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>34482245</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>121212</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
